--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\OneDrive\Desktop\UIBK\UIBK\8. SEMESTER\SE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\g6t1\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112D7D80-BB06-4456-9D79-26684068C9BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DA851D-38AB-4714-A91E-C6C7A77110EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -522,7 +522,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -630,9 +630,18 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="8">
+        <v>44271</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8"/>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\g6t1\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DA851D-38AB-4714-A91E-C6C7A77110EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720F0FD6-99C8-4B65-B2E4-E60DB7029E4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -522,7 +522,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -620,7 +620,7 @@
         <v>44270</v>
       </c>
       <c r="B7" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -644,14 +644,32 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="8">
+        <v>44273</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="8">
+        <v>44273</v>
+      </c>
+      <c r="B10" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8"/>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\g6t1\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720F0FD6-99C8-4B65-B2E4-E60DB7029E4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B534A0B-2019-4E72-8E67-71B0E7E9AFFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -522,7 +522,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -662,7 +662,7 @@
         <v>44273</v>
       </c>
       <c r="B10" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\g6t1\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B534A0B-2019-4E72-8E67-71B0E7E9AFFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74037820-EA0B-4C7A-AA7E-A45160B1EC22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Datum</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Teambesprechung Discord</t>
+  </si>
+  <si>
+    <t>AuditLog</t>
+  </si>
+  <si>
+    <t>AuditLogService, AuditLogRepo</t>
   </si>
 </sst>
 </file>
@@ -522,7 +528,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -672,14 +678,32 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="8">
+        <v>44276</v>
+      </c>
+      <c r="B11" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="8">
+        <v>44279</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8"/>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\g6t1\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74037820-EA0B-4C7A-AA7E-A45160B1EC22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CD8D04-D38F-4ED0-A2B8-44696D4BEA03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>AuditLogService, AuditLogRepo</t>
+  </si>
+  <si>
+    <t>UserRegistrierung</t>
+  </si>
+  <si>
+    <t>GUI</t>
   </si>
 </sst>
 </file>
@@ -528,7 +534,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -706,39 +712,102 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="8">
+        <v>44280</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="8">
+        <v>44281</v>
+      </c>
+      <c r="B14" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="8">
+        <v>44282</v>
+      </c>
+      <c r="B15" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="8">
+        <v>44288</v>
+      </c>
+      <c r="B17" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="8">
+        <v>44290</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="8">
+        <v>44293</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8"/>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\g6t1\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CD8D04-D38F-4ED0-A2B8-44696D4BEA03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D50C35-E227-40CF-BFE8-6C1780BCB141}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -534,7 +534,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -810,19 +810,46 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="8">
+        <v>44294</v>
+      </c>
+      <c r="B20" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="8">
+        <v>44295</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="8">
+        <v>44296</v>
+      </c>
+      <c r="B22" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8"/>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\g6t1\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D50C35-E227-40CF-BFE8-6C1780BCB141}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7F9051-E2AD-4213-B810-BF7B119F1F7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>GUI</t>
+  </si>
+  <si>
+    <t>Create New Topic - categories.xhtml</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -852,29 +855,74 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="8">
+        <v>44297</v>
+      </c>
+      <c r="B23" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="8">
+        <v>44300</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="8">
+        <v>44301</v>
+      </c>
+      <c r="B26" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\g6t1\documents\zeitaufzeichnung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\newProjekt\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D50C35-E227-40CF-BFE8-6C1780BCB141}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609CEC78-EFAC-4735-8A7A-8C1664FE4E61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -121,6 +121,18 @@
   <si>
     <t>GUI</t>
   </si>
+  <si>
+    <t>Create New Topic - categories.xhtml</t>
+  </si>
+  <si>
+    <t>Create New Topic - Controller</t>
+  </si>
+  <si>
+    <t>Create New Topic - Services</t>
+  </si>
+  <si>
+    <t>Frontend - Topic</t>
+  </si>
 </sst>
 </file>
 
@@ -200,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -214,6 +226,7 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -531,10 +544,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -852,44 +865,116 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="8">
+        <v>44297</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="8">
+        <v>44297</v>
+      </c>
+      <c r="B24" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="8">
+        <v>44300</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="8">
+        <v>44301</v>
+      </c>
+      <c r="B27" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="8">
+        <v>44304</v>
+      </c>
+      <c r="B29" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="8">
+        <v>44306</v>
+      </c>
+      <c r="B30" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8"/>
@@ -5756,7 +5841,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1000</xm:sqref>
+          <xm:sqref>C2:C22 C29:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\newProjekt\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609CEC78-EFAC-4735-8A7A-8C1664FE4E61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8262B-82DC-410A-9C00-40B411BF7703}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>Frontend - Topic</t>
+  </si>
+  <si>
+    <t>Termscreation</t>
+  </si>
+  <si>
+    <t>FileUpload</t>
+  </si>
+  <si>
+    <t>FileUpload - Frontend, …</t>
   </si>
 </sst>
 </file>
@@ -547,7 +556,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -977,19 +986,46 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="8">
+        <v>44308</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="8">
+        <v>44309</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="8">
+        <v>1.0027777777777778</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8"/>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\newProjekt\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8262B-82DC-410A-9C00-40B411BF7703}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CFB5AD-E3B7-434C-890A-35E61EB79726}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Konzeptbeschreibung - GUI Prototyp</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>Teambesprechung Discord</t>
@@ -556,7 +553,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -660,7 +657,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -702,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -716,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -730,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -744,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -758,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -772,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -786,7 +783,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -800,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -814,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -828,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -842,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -856,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -870,7 +867,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -884,7 +881,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -898,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -912,7 +909,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -926,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -940,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -954,7 +951,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -968,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -982,7 +979,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -996,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1010,12 +1007,12 @@
         <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8">
-        <v>1.0027777777777778</v>
+        <v>44310</v>
       </c>
       <c r="B33" s="7">
         <v>0.16666666666666666</v>
@@ -1024,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1033,9 +1030,7 @@
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A35" s="8"/>
       <c r="B35" s="7"/>
       <c r="D35" s="3"/>
     </row>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\newProjekt\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CFB5AD-E3B7-434C-890A-35E61EB79726}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA4F6E1-DC94-4662-9C69-2F97FA82740D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>FileUpload - Frontend, …</t>
+  </si>
+  <si>
+    <t>admin.xhtml, Frontend, ongoingGames</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1025,9 +1028,18 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="8">
+        <v>44311</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8"/>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\newProjekt\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA4F6E1-DC94-4662-9C69-2F97FA82740D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3501B4B7-C663-4D7B-B26C-EA2DE917798C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>admin.xhtml, Frontend, ongoingGames</t>
+  </si>
+  <si>
+    <t>Bugfix, user.xhtml (Rollen), categories.xhtml(Topic deletion)</t>
   </si>
 </sst>
 </file>
@@ -553,10 +556,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -564,7 +567,7 @@
     <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="31.2">
@@ -1042,29 +1045,74 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="8">
+        <v>44314</v>
+      </c>
+      <c r="B35" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="8">
+        <v>44315</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="8">
+        <v>44288</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8"/>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\newProjekt\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3501B4B7-C663-4D7B-B26C-EA2DE917798C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CB5B1B-BC33-4A14-BCCD-14A70C854658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>Bugfix, user.xhtml (Rollen), categories.xhtml(Topic deletion)</t>
+  </si>
+  <si>
+    <t>Bugfix terms, Lobby Highscores</t>
+  </si>
+  <si>
+    <t>update Managerhub, update Chart</t>
+  </si>
+  <si>
+    <t>update Chart</t>
+  </si>
+  <si>
+    <t>add Help buttons to the xhtml files</t>
   </si>
 </sst>
 </file>
@@ -556,10 +568,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1088,7 +1100,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B38" s="7">
         <v>0.375</v>
@@ -1102,7 +1114,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8">
-        <v>44288</v>
+        <v>44318</v>
       </c>
       <c r="B39" s="7">
         <v>0.29166666666666669</v>
@@ -1115,24 +1127,60 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="8">
+        <v>44319</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="8">
+        <v>44321</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B42" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8"/>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\newProjekt\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CB5B1B-BC33-4A14-BCCD-14A70C854658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591BCFF7-04AA-4540-A223-4A7597EA9F5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -565,13 +565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1001"/>
+  <dimension ref="A1:D1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1019,18 +1019,18 @@
         <v>44309</v>
       </c>
       <c r="B32" s="7">
-        <v>0.16666666666666666</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B33" s="7">
         <v>0.16666666666666666</v>
@@ -1039,29 +1039,29 @@
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B34" s="7">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8">
-        <v>44314</v>
+        <v>44311</v>
       </c>
       <c r="B35" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -1072,38 +1072,38 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8">
-        <v>44315</v>
+        <v>44311</v>
       </c>
       <c r="B36" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.125</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8">
-        <v>44316</v>
+        <v>44314</v>
       </c>
       <c r="B37" s="7">
-        <v>0.27083333333333331</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8">
-        <v>44317</v>
+        <v>44315</v>
       </c>
       <c r="B38" s="7">
-        <v>0.375</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1114,10 +1114,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8">
-        <v>44318</v>
+        <v>44316</v>
       </c>
       <c r="B39" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1128,49 +1128,49 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8">
-        <v>44319</v>
+        <v>44317</v>
       </c>
       <c r="B40" s="7">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8">
-        <v>44321</v>
+        <v>44318</v>
       </c>
       <c r="B41" s="7">
-        <v>0.16666666666666666</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8">
-        <v>44322</v>
+        <v>44318</v>
       </c>
       <c r="B42" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8">
-        <v>44325</v>
+        <v>44319</v>
       </c>
       <c r="B43" s="7">
         <v>0.125</v>
@@ -1179,28 +1179,64 @@
         <v>5</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8">
+        <v>44321</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B45" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="D46" s="3"/>
-    </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B47" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8"/>
@@ -5968,7 +6004,22 @@
       <c r="D1000" s="3"/>
     </row>
     <row r="1001" spans="1:4">
-      <c r="A1001" s="2"/>
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="7"/>
+      <c r="D1001" s="3"/>
+    </row>
+    <row r="1002" spans="1:4">
+      <c r="A1002" s="8"/>
+      <c r="B1002" s="7"/>
+      <c r="D1002" s="3"/>
+    </row>
+    <row r="1003" spans="1:4">
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="7"/>
+      <c r="D1003" s="3"/>
+    </row>
+    <row r="1004" spans="1:4">
+      <c r="A1004" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5980,7 +6031,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C22 C29:C1000</xm:sqref>
+          <xm:sqref>C2:C22 C29:C1003</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\newProjekt\documents\zeitaufzeichnung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\newStructure_g6t1\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591BCFF7-04AA-4540-A223-4A7597EA9F5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6382B98A-7B0E-4550-8452-36772CCFF9EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>add Help buttons to the xhtml files</t>
+  </si>
+  <si>
+    <t>Testdrehbuch</t>
+  </si>
+  <si>
+    <t>bugfixes</t>
+  </si>
+  <si>
+    <t>Testdrehbuch, bugfixes</t>
   </si>
 </sst>
 </file>
@@ -571,7 +580,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1239,24 +1248,60 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B48" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B49" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="8">
+        <v>44328</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="8">
+        <v>44329</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8"/>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\newStructure_g6t1\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6382B98A-7B0E-4550-8452-36772CCFF9EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2EA1CC-F144-4DF7-9F3E-1B21245A4751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Testdrehbuch, bugfixes</t>
+  </si>
+  <si>
+    <t>Bugfix</t>
   </si>
 </sst>
 </file>
@@ -577,10 +580,10 @@
   <dimension ref="A1:D1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1304,29 +1307,70 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="8">
+        <v>44334</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7"/>
+      <c r="A53" s="8">
+        <v>44334</v>
+      </c>
+      <c r="B53" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="8">
+        <v>44335</v>
+      </c>
+      <c r="B54" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="8">
+        <v>44341</v>
+      </c>
+      <c r="B55" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="7"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="8">
+        <v>44346</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="8"/>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\newStructure_g6t1\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2EA1CC-F144-4DF7-9F3E-1B21245A4751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B3266B-328D-439C-B7DB-C602EFC75209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Bugfix</t>
+  </si>
+  <si>
+    <t>Tests-Tutorial</t>
   </si>
 </sst>
 </file>
@@ -580,10 +583,10 @@
   <dimension ref="A1:D1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1373,53 +1376,139 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="8">
+        <v>44347</v>
+      </c>
+      <c r="B57" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="8">
+        <v>44348</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="8">
+        <v>44349</v>
+      </c>
+      <c r="B59" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="8">
+        <v>44352</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="8">
+        <v>44354</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="7"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="8">
+        <v>44355</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="7"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="8">
+        <v>44357</v>
+      </c>
+      <c r="B63" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B64" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="7"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="8">
+        <v>44363</v>
+      </c>
+      <c r="B65" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B66" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4">

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\newStructure_g6t1\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B3266B-328D-439C-B7DB-C602EFC75209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91760AB-2871-4809-9832-FF884D4FCAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -583,10 +583,10 @@
   <dimension ref="A1:D1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1473,43 +1473,29 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="8">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B64" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="8">
-        <v>44363</v>
+        <v>44361</v>
       </c>
       <c r="B65" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="8">
-        <v>44361</v>
-      </c>
-      <c r="B66" s="7">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C66" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="8"/>
@@ -6209,7 +6195,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C22 C29:C1003</xm:sqref>
+          <xm:sqref>C2:C22 C29:C65 C67:C1003</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
+++ b/documents/zeitaufzeichnung/Zeitaufzeichnung-Ismail-Uener.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43660\IdeaProjects\newStructure_g6t1\documents\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2EA1CC-F144-4DF7-9F3E-1B21245A4751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91760AB-2871-4809-9832-FF884D4FCAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Bugfix</t>
+  </si>
+  <si>
+    <t>Tests-Tutorial</t>
   </si>
 </sst>
 </file>
@@ -580,10 +583,10 @@
   <dimension ref="A1:D1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1373,54 +1376,126 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="8">
+        <v>44347</v>
+      </c>
+      <c r="B57" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="8">
+        <v>44348</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="8">
+        <v>44349</v>
+      </c>
+      <c r="B59" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="8">
+        <v>44352</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="8">
+        <v>44354</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="7"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="8">
+        <v>44355</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="7"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="8">
+        <v>44357</v>
+      </c>
+      <c r="B63" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="8">
+        <v>44360</v>
+      </c>
+      <c r="B64" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="7"/>
+      <c r="A65" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B65" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
       <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
-      <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="8"/>
@@ -6120,7 +6195,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C22 C29:C1003</xm:sqref>
+          <xm:sqref>C2:C22 C29:C65 C67:C1003</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
